--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FA542C-3279-4C31-8BFB-A884B65688A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCaseExecution" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCaseFields" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,145 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TestcaseID</t>
+  </si>
+  <si>
+    <t>TestcaseDescription</t>
+  </si>
+  <si>
+    <t>Demo001</t>
+  </si>
+  <si>
+    <t>CHROME</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>DEV1</t>
+  </si>
+  <si>
+    <t>http://demowebshop.tricentis.com/</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>ExecuteFlag</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Demo002</t>
+  </si>
+  <si>
+    <t>atest@gmail.com</t>
+  </si>
+  <si>
+    <t>Empty Shopping Cart</t>
+  </si>
+  <si>
+    <t>Demo003</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Demo004</t>
+  </si>
+  <si>
+    <t>addToCartandVerifyDetails</t>
+  </si>
+  <si>
+    <t>invalid_username</t>
+  </si>
+  <si>
+    <t>invalid_password</t>
+  </si>
+  <si>
+    <t>wrong_username</t>
+  </si>
+  <si>
+    <t>wrong_password</t>
+  </si>
+  <si>
+    <t>ScreenShotOption</t>
+  </si>
+  <si>
+    <t>FieldItemNames</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>test457</t>
+  </si>
+  <si>
+    <t>invalid_username,invalid_password</t>
+  </si>
+  <si>
+    <t>test345@gm</t>
+  </si>
+  <si>
+    <t>invalid Format Credentials</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>Invalid Login</t>
+  </si>
+  <si>
+    <t>wrong_username,wrong_password</t>
+  </si>
+  <si>
+    <t>empty login credentials</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>Welcome, Please Sign In!_x000D_
+atest@gmail.comis verified successfully.</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Welcome, Please Sign In!_x000D_
+Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>Please verify login credentials once, it should not be emply</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +173,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +212,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +534,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5150698F-F4AC-493A-9E25-B31554CCE261}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31373E-4625-4B95-8FE7-62CBCF15DF6D}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8532B-53E8-4B49-B74F-8069CF8941AC}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55844BD-BB9C-4B5B-8F46-E3B81B5A3FEC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{64A24B9E-2A80-43F2-B372-DF6F7C43C471}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EA324FF9-951B-4058-9627-0A398804BF8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FA542C-3279-4C31-8BFB-A884B65688A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{527A73DB-B733-4239-8B0F-2CB6F240391B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>username</t>
   </si>
@@ -144,21 +144,74 @@
     <t>ALWAYS</t>
   </si>
   <si>
-    <t>Welcome, Please Sign In!_x000D_
-atest@gmail.comis verified successfully.</t>
+    <t>Demo005</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>Welcome, Please Sign In!_x000D_
-Login was unsuccessful. Please correct the errors and try again.</t>
-  </si>
-  <si>
-    <t>Please enter a valid email address.</t>
-  </si>
-  <si>
-    <t>Please verify login credentials once, it should not be emply</t>
+    <t>Demo006</t>
+  </si>
+  <si>
+    <t>item_Quantity</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>item_Quantity,Address_FirstName,Address_LastName,Address_Country,Address_City,Address_Address1,Address_zipcode,Address_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Address_FirstName</t>
+  </si>
+  <si>
+    <t>Address_LastName</t>
+  </si>
+  <si>
+    <t>Address_Country</t>
+  </si>
+  <si>
+    <t>Address_City</t>
+  </si>
+  <si>
+    <t>Address_Address1</t>
+  </si>
+  <si>
+    <t>Address_zipcode</t>
+  </si>
+  <si>
+    <t>Address_PhoneNumber</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>zipcodeNzipcode</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Welcome, Please Sign In! is verified successfully._x000D_
+atest@gmail.com is verified successfully._x000D_
+Message displayed Your Shopping Cart is empty! _x000D_
+Item Price: ' 51.00 ' retrieved from the itemCart_x000D_
+subTotal: 510.00 and ItemTotal:510 are matched.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +591,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31373E-4625-4B95-8FE7-62CBCF15DF6D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -644,19 +697,14 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -667,17 +715,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -690,19 +733,14 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -713,21 +751,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -741,25 +774,33 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,10 +809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8532B-53E8-4B49-B74F-8069CF8941AC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,6 +855,19 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,15 +875,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55844BD-BB9C-4B5B-8F46-E3B81B5A3FEC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,6 +918,70 @@
       </c>
       <c r="B4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527A73DB-B733-4239-8B0F-2CB6F240391B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D754E144-1AE0-40A2-B5DE-41EB7593FD45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>username</t>
   </si>
@@ -147,21 +147,12 @@
     <t>Demo005</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>Demo006</t>
   </si>
   <si>
     <t>item_Quantity</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>item_Quantity,Address_FirstName,Address_LastName,Address_Country,Address_City,Address_Address1,Address_zipcode,Address_PhoneNumber</t>
-  </si>
-  <si>
     <t>Address_FirstName</t>
   </si>
   <si>
@@ -183,42 +174,54 @@
     <t>Address_PhoneNumber</t>
   </si>
   <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>zipcodeNzipcode</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>FAILED</t>
+    <t>optum</t>
+  </si>
+  <si>
+    <t>uhg</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>HNO1234</t>
+  </si>
+  <si>
+    <t>item_Quantity,Address_FirstName,Address_LastName,Address_Country,Address_City,Address_Address1,Address_zipcode,Address_PhoneNumber,Address_PaymentMethod,Address_ShippingMethod</t>
+  </si>
+  <si>
+    <t>Address_ShippingMethod</t>
+  </si>
+  <si>
+    <t>Address_PaymentMethod</t>
+  </si>
+  <si>
+    <t>Payments.CashOnDelivery</t>
+  </si>
+  <si>
+    <t>Next Day Air___Shipping.FixedRate</t>
   </si>
   <si>
     <t>Welcome, Please Sign In! is verified successfully._x000D_
 atest@gmail.com is verified successfully._x000D_
 Message displayed Your Shopping Cart is empty! _x000D_
-Item Price: ' 51.00 ' retrieved from the itemCart_x000D_
-subTotal: 510.00 and ItemTotal:510 are matched.</t>
+Item Price: '10.00 ' retrieved from the itemCart_x000D_
+subTotal: 100.00 and ItemTotal:100 are matched._x000D_
+Paymentinformation verification is success. Payment info message is You will pay by COD_x000D_
+Order status verification is success. Order status message is Your order has been successfully processed!_x000D_
+Order Number generated. Order Number is 790161</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -307,6 +317,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31373E-4625-4B95-8FE7-62CBCF15DF6D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,20 +785,17 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -796,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +870,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55844BD-BB9C-4B5B-8F46-E3B81B5A3FEC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,7 +930,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -930,58 +938,74 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>513401</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>123686548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>54</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D754E144-1AE0-40A2-B5DE-41EB7593FD45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6DB759-58B9-4CA0-AE4B-226835E8A3B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -204,17 +204,17 @@
     <t>Next Day Air___Shipping.FixedRate</t>
   </si>
   <si>
+    <t>PASSED</t>
+  </si>
+  <si>
     <t>Welcome, Please Sign In! is verified successfully._x000D_
 atest@gmail.com is verified successfully._x000D_
 Message displayed Your Shopping Cart is empty! _x000D_
-Item Price: '10.00 ' retrieved from the itemCart_x000D_
-subTotal: 100.00 and ItemTotal:100 are matched._x000D_
+Item Price: '51.00 ' retrieved from the itemCart_x000D_
+subTotal: 510.00 and ItemTotal:510 are matched._x000D_
 Paymentinformation verification is success. Payment info message is You will pay by COD_x000D_
 Order status verification is success. Order status message is Your order has been successfully processed!_x000D_
-Order Number generated. Order Number is 790161</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+Order Number generated. Order Number is 790318</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31373E-4625-4B95-8FE7-62CBCF15DF6D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +820,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55844BD-BB9C-4B5B-8F46-E3B81B5A3FEC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6DB759-58B9-4CA0-AE4B-226835E8A3B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8F3595-3313-461E-9A2A-149EEF26E600}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 subTotal: 510.00 and ItemTotal:510 are matched._x000D_
 Paymentinformation verification is success. Payment info message is You will pay by COD_x000D_
 Order status verification is success. Order status message is Your order has been successfully processed!_x000D_
-Order Number generated. Order Number is 790318</t>
+Order Number generated. Order Number is 790322</t>
   </si>
 </sst>
 </file>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8F3595-3313-461E-9A2A-149EEF26E600}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F1FF1-CFFC-48C3-A37B-526810D15221}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -208,13 +208,7 @@
   </si>
   <si>
     <t>Welcome, Please Sign In! is verified successfully._x000D_
-atest@gmail.com is verified successfully._x000D_
-Message displayed Your Shopping Cart is empty! _x000D_
-Item Price: '51.00 ' retrieved from the itemCart_x000D_
-subTotal: 510.00 and ItemTotal:510 are matched._x000D_
-Paymentinformation verification is success. Payment info message is You will pay by COD_x000D_
-Order status verification is success. Order status message is Your order has been successfully processed!_x000D_
-Order Number generated. Order Number is 790322</t>
+atest@gmail.com is verified successfully.</t>
   </si>
 </sst>
 </file>
@@ -660,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31373E-4625-4B95-8FE7-62CBCF15DF6D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -708,12 +702,17 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -731,7 +730,6 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -749,7 +747,6 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -767,7 +764,6 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -785,9 +781,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -798,16 +793,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55844BD-BB9C-4B5B-8F46-E3B81B5A3FEC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Code\webShopDemo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Websho_latest\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F1FF1-CFFC-48C3-A37B-526810D15221}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E6BC2-0BF4-45ED-BEB5-C8C0C7C2F227}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>username</t>
   </si>
@@ -202,13 +202,6 @@
   </si>
   <si>
     <t>Next Day Air___Shipping.FixedRate</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>Welcome, Please Sign In! is verified successfully._x000D_
-atest@gmail.com is verified successfully.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +589,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,7 +648,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -702,17 +695,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -793,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Websho_latest\webShopDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E6BC2-0BF4-45ED-BEB5-C8C0C7C2F227}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FAC38A-A3CC-4F72-A98D-2518EC76EA56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>username</t>
   </si>
@@ -202,6 +202,19 @@
   </si>
   <si>
     <t>Next Day Air___Shipping.FixedRate</t>
+  </si>
+  <si>
+    <t>Welcome, Please Sign In! is verified successfully._x000D_
+atest@gmail.com is verified successfully._x000D_
+Message displayed Your Shopping Cart is empty! _x000D_
+Item Price: '24.00 ' retrieved from the itemCart_x000D_
+subTotal: 240.00 and ItemTotal:240 are matched._x000D_
+Paymentinformation verification is success. Payment info message is You will pay by COD_x000D_
+Order status verification is success. Order status message is Your order has been successfully processed!_x000D_
+Order Number generated. Order Number is 791334</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -700,7 +713,6 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -770,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -785,6 +797,12 @@
       </c>
       <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
